--- a/Data/StageData.xlsx
+++ b/Data/StageData.xlsx
@@ -15,8 +15,244 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 : 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시작
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 : 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시작</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 : 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시작
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 : 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시작</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,11 +317,39 @@
     <t>InGame/Stage/Stage05</t>
   </si>
   <si>
-    <t>BG_BPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG_Length</t>
+    <t>bgm_BPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bossLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bossBPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_Standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bossType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bossStandby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +372,34 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -159,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +462,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,22 +767,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="D7:E8"/>
+      <selection activeCell="K8" sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,8 +804,26 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -520,8 +839,26 @@
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -537,8 +874,26 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -549,13 +904,31 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1">
+        <v>183</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>130</v>
+      </c>
+      <c r="I4" s="1">
+        <v>183</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -571,8 +944,26 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -588,8 +979,26 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -605,8 +1014,26 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -620,12 +1047,32 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
